--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE35D6-0E3C-448A-867D-7B7AF3F9AFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951096DE-2420-4180-AB4B-9F8D7C9B686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
